--- a/webScrapping/espn_scrapper/IPL/Sunrisers Hyderabad/Abdul Samad.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Sunrisers Hyderabad/Abdul Samad.xlsx
@@ -439,60 +439,60 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Sep 29 2020</v>
+        <v xml:space="preserve"> Oct 2 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 15 runs</v>
+        <v>Sunrisers won by 7 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F2" t="str">
         <v>Abdul Samad</v>
       </c>
       <c r="G2" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" t="str">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>171.42</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 8 2020</v>
+        <v xml:space="preserve"> Sep 29 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Sunrisers won by 69 runs</v>
+        <v>Sunrisers won by 15 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E3" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F3" t="str">
         <v>Abdul Samad</v>
       </c>
       <c r="G3" t="str">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" t="str">
         <v>7</v>
@@ -501,27 +501,27 @@
         <v>1</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>114.28</v>
+        <v>171.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 2 2020</v>
+        <v xml:space="preserve"> Oct 8 2020</v>
       </c>
       <c r="B4" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C4" t="str">
-        <v>Sunrisers won by 7 runs</v>
+        <v>Sunrisers won by 69 runs</v>
       </c>
       <c r="D4" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="E4" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F4" t="str">
         <v>Abdul Samad</v>
@@ -530,16 +530,16 @@
         <v>8</v>
       </c>
       <c r="H4" t="str">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="str">
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>133.33</v>
+        <v>114.28</v>
       </c>
     </row>
   </sheetData>
